--- a/xlsx/日光節約時間_intext.xlsx
+++ b/xlsx/日光節約時間_intext.xlsx
@@ -29,7 +29,7 @@
     <t>英语</t>
   </si>
   <si>
-    <t>政策_政策_美國_日光節約時間</t>
+    <t>体育运动_体育运动_伊朗_日光節約時間</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3</t>
